--- a/reporting/РеалДоговор.xlsx
+++ b/reporting/РеалДоговор.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C20FB-C2C7-444E-9C88-0115A3ACBCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +24,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>Объект/скважина</t>
+  </si>
+  <si>
+    <t>Оборудование</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>Сумма договора</t>
+  </si>
+  <si>
+    <t>Проектная глубина по стволу, м</t>
+  </si>
+  <si>
+    <t>010721КЛЗ</t>
+  </si>
+  <si>
+    <t>ESCO-PIVNICH</t>
+  </si>
+  <si>
+    <t>Клубанівсько-Зубренківське родовище №3</t>
+  </si>
+  <si>
+    <t>LAND RIG 3000 HP-021A</t>
+  </si>
+  <si>
+    <t>PUGC</t>
+  </si>
+  <si>
+    <t>Пролетарське родовище №716</t>
+  </si>
+  <si>
+    <t>K-200T</t>
+  </si>
+  <si>
+    <t>091221КЛЗ</t>
+  </si>
+  <si>
+    <t>Клубанівсько-Зубренківське родовище №10</t>
+  </si>
+  <si>
+    <t>NGPG</t>
+  </si>
+  <si>
+    <t>Дубрівсько-Радченківська площа №1</t>
+  </si>
+  <si>
+    <t>SK-1000 SUPER SINGLE</t>
+  </si>
+  <si>
+    <t>171122/51</t>
+  </si>
+  <si>
+    <t>Карайкозiвська площа №51</t>
+  </si>
+  <si>
+    <t>171122/52</t>
+  </si>
+  <si>
+    <t>Карайкозiвська площа №52</t>
+  </si>
+  <si>
+    <t>Дубрівсько-Радченківська площа №3</t>
+  </si>
+  <si>
+    <t>131022-В</t>
+  </si>
+  <si>
+    <t>SOE</t>
+  </si>
+  <si>
+    <t>Водянівська площа №10</t>
+  </si>
+  <si>
+    <t>URALMASH 3D-76</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>SK-2000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +156,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +234,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8314342-DC18-41A4-96BF-04C7866B6CA0}" name="Таблица1" displayName="Таблица1" ref="A3:J11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A3:J11" xr:uid="{E8314342-DC18-41A4-96BF-04C7866B6CA0}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{6FC841D2-4424-4A3D-9308-59AB120BBCB6}" name="Номер" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3F7A6C67-B1BE-4EAA-B4D0-3F933307F4C2}" name="Дата" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3031F345-A80E-4257-94F3-EE482072736D}" name="Контрагент" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F4906741-6869-4D38-A51E-F76F5418E8BF}" name="Объект/скважина" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{15425366-2F58-4995-B470-1C232BFA026C}" name="Проектная глубина по стволу, м" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{573E7244-904A-4826-9CA3-E9704A06C185}" name="Оборудование" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6BE37EF0-C1D5-4ADF-9D14-74DAB0293231}" name="Начало" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{0CED7080-D25D-488C-A683-C303125DFC4D}" name="Окончание" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6F8F4F01-362B-4CE1-BC92-EECFA1365BA0}" name="Сумма договора" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{189BFDC7-EC15-4E8D-A681-9AD59EF7CC1B}" name="Столбец1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +517,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="9" max="10" width="16.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44385</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>499633200</v>
+      </c>
+      <c r="J4" s="4">
+        <v>429554057.56793249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>200421</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44306</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3541</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44397</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44829</v>
+      </c>
+      <c r="I5" s="4">
+        <v>61909536</v>
+      </c>
+      <c r="J5" s="4">
+        <v>61909536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44539</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44539</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
+        <v>496761276.22000003</v>
+      </c>
+      <c r="J6" s="4">
+        <v>415226405.74000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>150122</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44576</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1290</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44578</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44938</v>
+      </c>
+      <c r="I7" s="4">
+        <v>42110784</v>
+      </c>
+      <c r="J7" s="4">
+        <v>42110784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5630</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44886</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
+        <v>995360964</v>
+      </c>
+      <c r="J8" s="4">
+        <v>447866916.83999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5630</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44895</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
+        <v>1036533078</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>50123</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44931</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>950</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44938</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>43710264</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43710264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44844</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44974</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <v>752456700</v>
+      </c>
+      <c r="J11" s="4">
+        <v>242901981.16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>